--- a/data/trans_bre/P14B23-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,56</t>
+          <t>4,98; 9,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,63</t>
+          <t>3,86; 8,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,86</t>
+          <t>-1,74; 2,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>160,61; 753,87</t>
+          <t>167,99; 769,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>133,32; 727,81</t>
+          <t>130,64; 779,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 65,99</t>
+          <t>-23,24; 70,42</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,43</t>
+          <t>3,52; 7,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,32</t>
+          <t>2,83; 6,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,85</t>
+          <t>3,54; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,45; 348,8</t>
+          <t>83,64; 366,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>124,1; 611,9</t>
+          <t>114,9; 605,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,28; 552,41</t>
+          <t>113,61; 598,0</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,52</t>
+          <t>2,74; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,75</t>
+          <t>2,13; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,08</t>
+          <t>-0,32; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,38; 608,41</t>
+          <t>70,56; 561,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,17; 446,76</t>
+          <t>57,71; 433,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 282,47</t>
+          <t>-1,29; 275,06</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,26</t>
+          <t>3,02; 7,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,2</t>
+          <t>2,68; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,47</t>
+          <t>1,2; 5,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,27; 358,84</t>
+          <t>80,52; 362,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,1; 403,46</t>
+          <t>90,87; 393,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 156,41</t>
+          <t>20,85; 155,74</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,41; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,77; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,89</t>
+          <t>2,03; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>149,19; 317,44</t>
+          <t>149,08; 326,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,33; 353,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,63; 166,43</t>
+          <t>54,83; 154,67</t>
         </is>
       </c>
     </row>
